--- a/mAuditoriaPV/formatos/CAJAS COLORES VILLEGAS.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS COLORES VILLEGAS.xlsx
@@ -1,51 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\FPonce\SEGUIMIENTOS\CAJAS POR TIENDA\CAJAS TRES COLORES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84B97B5-19B4-4865-92F4-2FA39ADB1FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importador" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>016000490987</t>
+    <t>ClaveArticulo</t>
   </si>
   <si>
-    <t>016000490949</t>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>7501052470214</t>
+  </si>
+  <si>
+    <t>7501052470221</t>
+  </si>
+  <si>
+    <t>7501017035014</t>
+  </si>
+  <si>
+    <t>7501045404288</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,23 +93,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="8"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -108,8 +170,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ClaveArticulo" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Cantidad" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -119,39 +192,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,7 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -230,215 +301,304 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>7501073411173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>7501073411609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>731082007136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>7501003335029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>7501003150233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7501041415615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7501003124340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7501006532753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7501003105486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>7792129002319</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7501204102024</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7501017043712</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7501003124166</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7501003124319</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>7501058757449</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7506192506786</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>